--- a/connection_matrix.xlsx
+++ b/connection_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E7798-868A-4D00-B412-57AFA35563FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA234C-7287-4904-AEBC-4C554BBDED83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3E2C5C-514C-46EA-AB74-751DD2BA6F70}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Platforms</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>not important enough</t>
+  </si>
+  <si>
+    <t>Presskit</t>
+  </si>
+  <si>
+    <t>small link</t>
+  </si>
+  <si>
+    <t>Twitch page</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E910C1E-0AAC-4671-ABB9-E7E37A8B9B04}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +502,7 @@
     <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +527,14 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -541,8 +556,11 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -567,8 +585,11 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -581,8 +602,11 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -630,8 +657,11 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -656,8 +686,11 @@
       <c r="H7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -683,12 +716,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/connection_matrix.xlsx
+++ b/connection_matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA234C-7287-4904-AEBC-4C554BBDED83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB24F9-8019-458C-8700-299C22691B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3E2C5C-514C-46EA-AB74-751DD2BA6F70}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>Platforms</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Twitch page</t>
+  </si>
+  <si>
+    <t>mentioned</t>
+  </si>
+  <si>
+    <t>Email to existing creators</t>
+  </si>
+  <si>
+    <t>Email to new youtubers</t>
+  </si>
+  <si>
+    <t>Update trailer</t>
+  </si>
+  <si>
+    <t>Update landing page</t>
+  </si>
+  <si>
+    <t>indirect via trailer</t>
   </si>
 </sst>
 </file>
@@ -163,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E910C1E-0AAC-4671-ABB9-E7E37A8B9B04}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -500,9 +519,11 @@
     <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
     <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,22 +554,31 @@
       <c r="J1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -559,8 +589,11 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -589,7 +622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -606,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -632,7 +665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -661,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -690,7 +723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -716,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -727,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -735,9 +768,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/connection_matrix.xlsx
+++ b/connection_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB24F9-8019-458C-8700-299C22691B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF9ED3-72FB-4761-9994-D30D0FC68386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3E2C5C-514C-46EA-AB74-751DD2BA6F70}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t>Platforms</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>indirect via trailer</t>
+  </si>
+  <si>
+    <t>should be in recommendations</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,6 +818,39 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">

--- a/connection_matrix.xlsx
+++ b/connection_matrix.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF9ED3-72FB-4761-9994-D30D0FC68386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3E2C5C-514C-46EA-AB74-751DD2BA6F70}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="36">
   <si>
     <t>Platforms</t>
   </si>
@@ -129,12 +128,24 @@
   </si>
   <si>
     <t>should be in recommendations</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>Update Steam devlog</t>
+  </si>
+  <si>
+    <t>Update itch devlog</t>
+  </si>
+  <si>
+    <t>not yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,68 +514,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E910C1E-0AAC-4671-ABB9-E7E37A8B9B04}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -596,7 +606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -625,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -642,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -668,7 +678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -697,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -726,7 +736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -752,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -763,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -771,12 +781,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -814,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -849,21 +859,168 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>